--- a/Excel/effect_menu_audio_unit.xlsx
+++ b/Excel/effect_menu_audio_unit.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -565,9 +565,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">

--- a/Excel/effect_menu_audio_unit.xlsx
+++ b/Excel/effect_menu_audio_unit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>English</t>
   </si>
@@ -73,12 +73,6 @@
     <t>Each preset for Audio Unit effects is exported to a separate ".aupreset " file at /Users/&lt;yourUserName&gt;/Library/Audio/Presets/Apple/&lt;effectName&gt;/. A presets file lets you move settings for a particular effect between computers.</t>
   </si>
   <si>
-    <t>To export a saved User Preset, select</t>
-  </si>
-  <si>
-    <t>Export... from the Manage menu</t>
-  </si>
-  <si>
     <t>Select the user preset(s) you want to export then click OK to export each selected preset to a file. If there is only one preset in the list you must still select it, or nothing will be exported.</t>
   </si>
   <si>
@@ -115,36 +109,12 @@
     <t>&lt;  Back to: Effect Menu</t>
   </si>
   <si>
-    <t>प्रभाव मेनू: ऑडिओ युनिट - ऑडसेट मॅन्युअल</t>
-  </si>
-  <si>
-    <t>प्रभाव मेनू: ऑडिओ एकक</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
     <t>ऑडिओ युनिट (एयू) मॅक संगणकावर प्रदान केलेली एक सिस्टम-स्तरीय प्लग-इन आर्किटेक्चर आहे.</t>
   </si>
   <si>
     <t>हे रिअल-टाइम पूर्वावलोकनास समर्थन देते.</t>
   </si>
   <si>
-    <t>प्रीसेट्सची आयात / निर्यात समर्थित आहे (ते कसे कार्य करते याचे खाली वर्णन पहा) आणि केवळ ऑडसिटीमध्ये वापरण्यासाठी प्रीसेटची बचत.</t>
-  </si>
-  <si>
-    <t>ऑडिओ युनिट प्रभाव जोडत आहे</t>
-  </si>
-  <si>
-    <t>ऑडॅसिटीसाठी ऑडिओ युनिट प्लग-इन स्थापित करण्याच्या तपशीलवार सूचनांकरिता पहा: मॅक ओएस एक्स / मॅकओएसवर प्रभाव, जनरेटर आणि विश्लेषक प्लग-इन स्थापित करणे.</t>
-  </si>
-  <si>
-    <t>ऑडिओ युनिट इफेक्ट प्रीसेटची बचत, निर्यात आणि आयात</t>
-  </si>
-  <si>
     <t>प्रीसेट जतन करा ...</t>
   </si>
   <si>
@@ -163,49 +133,73 @@
     <t>आपण प्रीसेट निर्यात करण्यापूर्वी आपण तो आधीपासूनच वापरकर्ता प्रीसेट म्हणून जतन केलेला असणे आवश्यक आहे.</t>
   </si>
   <si>
-    <t>ऑडिओ युनिट प्रभावांसाठी प्रत्येक प्रीसेट / यूजर्स / &lt;yourUserName&gt; / लायब्ररी / ऑडिओ / प्रीसेट्स / Appleपल / &lt;effectName&gt; / वर वेगळ्या ".ऑप्रेसेट" फाइलमध्ये निर्यात केली जाते. एक प्रीसेट सेट फाइल आपल्याला संगणक दरम्यान विशिष्ट प्रभावासाठी सेटिंग्ज हलवू देते.</t>
-  </si>
-  <si>
-    <t>जतन केलेला वापरकर्ता प्रीसेट निर्यात करण्यासाठी, निवडा</t>
-  </si>
-  <si>
-    <t>व्यवस्थापित करा मेनूमधून ... निर्यात करा</t>
-  </si>
-  <si>
-    <t>आपण निर्यात करू इच्छित वापरकर्ता प्रीसेट (से) निवडा आणि नंतर प्रत्येक निवडलेल्या प्रीसेटची फाइलवर निर्यात करण्यासाठी ओके क्लिक करा. सूचीमध्ये एकच प्रीसेट असल्यास आपण अद्याप तो निवडणे आवश्यक आहे, किंवा काहीही निर्यात केले जाणार नाही.</t>
-  </si>
-  <si>
-    <t>आयात करा ...</t>
-  </si>
-  <si>
     <t>व्यवस्थापित करा मेनूमधून ... आयात करा निवडा</t>
   </si>
   <si>
-    <t>आपण आयात करू इच्छित प्रीसेट (र्स) निवडा नंतर प्रत्येक प्रीसेट फाइलला वापरकर्ता प्रीसेट म्हणून आयात करण्यासाठी ओके क्लिक करा.</t>
-  </si>
-  <si>
     <t>एक किंवा अधिक प्रीसेट आयात केल्याने परिणामी नवीन सेटिंग्ज लोड होत नाहीत. आपण व्यवस्थापित मेनूमध्ये वापरकर्त्याच्या प्रीसेटमधून आयातीत प्रीसेटपैकी एक निवडणे आवश्यक आहे</t>
   </si>
   <si>
     <t>त्याच्या सेटिंग्ज प्रभावीपणे लोड करण्यासाठी.</t>
   </si>
   <si>
-    <t>ऑडिओ युनिट प्रभाव पर्याय</t>
-  </si>
-  <si>
     <t>प्रभावाच्या संवादात, व्यवस्थापित करा क्लिक करा</t>
   </si>
   <si>
-    <t>बटण नंतर पर्याय स्पष्ट करा ... खाली दिलेला संवाद आणण्यासाठी. आपण या संवादातील पर्याय बदलता तेव्हा ते बदल फक्त चालू असलेल्या प्रभावावर लागू होतात. इतर सर्व ऑडिओ युनिट प्रभाव खाली दर्शविलेल्या डीफॉल्ट पर्यायांवर राहतील जोपर्यंत आपण त्यांचे पर्याय बदलत नाहीत.</t>
-  </si>
-  <si>
-    <t>उशीरपणाची भरपाईः ही सेटिंग (डीफॉल्टनुसार सक्षम केलेली) ऑडिओ युनिट प्रभावामुळे होणार्‍या वेव्हफॉर्मच्या विलंबाची भरपाई करते जे ऑडिओ डेटाला बफरवर प्रीलोड करते. नुकसान भरपाई सर्व प्रकरणांमध्ये कार्य करू शकत नाही आणि त्या कार्य करण्यासाठी, कोणत्याही नुकसानभरपाईची किंवा लेटेंसी अहवाल देण्याची सेटिंग्ज स्वतः सक्षम केलेली असणे आवश्यक आहे. नुकसान भरपाई अयशस्वी झाल्यास किंवा ही ऑडसेट सेटिंग अनचेक न केल्यास, प्रक्रिया केलेल्या निवडीच्या सुरूवातीस बफर ऑडिओ प्रभाव गप्प बसतील आणि निवडीच्या शेवटीपासून संबंधित ऑडिओ काढून टाकतील. नुकसान भरपाई सक्षम करणे किंवा अक्षम करणे तत्काळ प्रभावी आहे.</t>
-  </si>
-  <si>
-    <t>वापरकर्ता इंटरफेस: डीफॉल्टनुसार सक्षम केलेली "पूर्ण" सेटिंग बहुतेक ऑडिओ युनिट प्रभावांना ग्राफिकल (साध्या मजकुराऐवजी) इंटरफेस प्रदर्शित करण्यास अनुमती देते. आपण हे सेटिंग बदलल्यास आपण सेटिंग्ज संवाद बंद करणे आवश्यक आहे, नंतर बदल पाहण्यासाठी प्रभाव बंद करा आणि पुन्हा उघडणे.</t>
-  </si>
-  <si>
     <t>&lt;परत: प्रभाव मेनू</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>प्रभाव मेनू: ध्वनी एकक</t>
+  </si>
+  <si>
+    <t>प्रभाव मेनू: ध्वनी एकक - ओड्यासिटी माहितीपुस्तका</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>ध्वनी एकक प्रभाव जोडत आहे</t>
+  </si>
+  <si>
+    <t>प्रीसेट्सची आयात / निर्यात समर्थित आहे (ते कसे कार्य करते याचे खाली वर्णन पहा) आणि केवळ ओड्यासिटीमध्ये वापरण्यासाठी प्रीसेटची बचत.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटीसाठी ध्वनी एकक प्लग-इन स्थापित करण्याच्या तपशीलवार सूचनांकरिता पहा: मॅक ओएस एक्स / मॅकओएसवर प्रभाव, जनरेटर आणि विश्लेषक प्लग-इन स्थापित करणे.</t>
+  </si>
+  <si>
+    <t>ध्वनी एकक प्रभाव प्रीसेटची बचत, निर्यात आणि आयात</t>
+  </si>
+  <si>
+    <t>ध्वनी एकक प्रभावांसाठी प्रत्येक प्रीसेट / वापरकर्ते / &lt;आपले वापरकर्तानाव&gt; / ग्रंथालय / ध्वनी / प्रीसेट्स / ऍप्पल / &lt;प्रभावाचे नाव&gt; / वर वेगळ्या ".ऑप्रेसेट" धारिकामध्ये निर्यात केली जाते. एक प्रीसेट सेट धारिका आपल्याला संगणक दरम्यान विशिष्ट प्रभावासाठी सेटिंग्ज हलवू देते.</t>
+  </si>
+  <si>
+    <t>To export a saved User Preset, select Export... from the Manage menu in the effect dialog which brings up the following dialog:</t>
+  </si>
+  <si>
+    <t>जतन केलेला वापरकर्ता प्रीसेट एक्सपोर्ट करण्यासाठी, प्रभाव संवादमधे मॅनेज मेनूवरून निर्यात करा ... निवडा जे खालील संवाद समोर आणते.</t>
+  </si>
+  <si>
+    <t>आपण निर्यात करू इच्छित वापरकर्ता प्रीसेट (से) निवडा आणि नंतर प्रत्येक निवडलेल्या प्रीसेटची धरिकेवर निर्यात करण्यासाठी ओके क्लिक करा. सूचीमध्ये एकच प्रीसेट असल्यास आपण अद्याप तो निवडणे आवश्यक आहे, किंवा काहीही निर्यात केले जाणार नाही.</t>
+  </si>
+  <si>
+    <t>आयात करा …</t>
+  </si>
+  <si>
+    <t>आपण आयात करू इच्छित प्रीसेट (र्स) निवडा नंतर प्रत्येक प्रीसेट धरिकेला वापरकर्ता प्रीसेट म्हणून आयात करण्यासाठी ओके क्लिक करा.</t>
+  </si>
+  <si>
+    <t>ध्वनी एकक प्रभाव पर्याय</t>
+  </si>
+  <si>
+    <t>बटण नंतर पर्याय स्पष्ट करा ... खाली दिलेला संवाद आणण्यासाठी. आपण या संवादातील पर्याय बदलता तेव्हा ते बदल फक्त चालू असलेल्या प्रभावावर लागू होतात. इतर सर्व ध्वनी एकक प्रभाव खाली दर्शविलेल्या डीफॉल्ट पर्यायांवर राहतील जोपर्यंत आपण त्यांचे पर्याय बदलत नाहीत.</t>
+  </si>
+  <si>
+    <t>प्रलंबित भरपाईः ही सेटिंग (डीफॉल्टनुसार सक्षम केलेली) ध्वनी एकक प्रभावामुळे होणार्‍या तरंगरूपाच्या विलंबाची भरपाई करते जे ध्वनी माहितीला बफरवर प्रीलोड करते. नुकसान भरपाई सर्व प्रकरणांमध्ये कार्य करू शकत नाही आणि त्या कार्य करण्यासाठी, कोणत्याही नुकसानभरपाईची किंवा प्रलंबित अहवाल देण्याची सेटिंग्ज स्वतः सक्षम केलेली असणे आवश्यक आहे. नुकसान भरपाई अयशस्वी झाल्यास किंवा ही ओड्यासिटी सेटिंग अनचेक न केल्यास, प्रक्रिया केलेल्या निवडीच्या सुरूवातीस बफर ध्वनी प्रभाव गप्प बसतील आणि निवडीच्या शेवटीपासून संबंधित ध्वनी काढून टाकतील. नुकसान भरपाई सक्षम करणे किंवा अक्षम करणे तत्काळ प्रभावी आहे.</t>
+  </si>
+  <si>
+    <t>वापरकर्ता मुखपृष्ठ : डीफॉल्टनुसार सक्षम केलेली "पूर्ण" सेटिंग बहुतेक ध्वनी एकक प्रभावांना ग्राफिकल (साध्या मजकुराऐवजी) मुखपृष्ठ प्रदर्शित करण्यास अनुमती देते. आपण हे सेटिंग बदलल्यास आपण सेटिंग्ज संवाद बंद करणे आवश्यक आहे, नंतर बदल पाहण्यासाठी प्रभाव बंद करा आणि पुन्हा उघडणे.</t>
   </si>
 </sst>
 </file>
@@ -264,11 +258,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -591,7 +586,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -602,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -613,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -624,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -635,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -646,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -657,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -668,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -679,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -690,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -701,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -712,7 +707,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -723,7 +718,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -734,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -745,7 +740,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -756,7 +751,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -766,8 +761,8 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>49</v>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -775,10 +770,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -786,10 +781,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -797,10 +792,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -811,7 +806,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -819,10 +814,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -830,10 +825,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -841,10 +836,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -855,7 +850,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -866,7 +861,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -877,7 +872,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -888,7 +883,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -898,8 +893,8 @@
       <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
-        <v>59</v>
+      <c r="C30" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -909,8 +904,8 @@
       <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
-        <v>60</v>
+      <c r="C31" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -921,32 +916,11 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/effect_menu_audio_unit.xlsx
+++ b/Excel/effect_menu_audio_unit.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>English</t>
   </si>
@@ -73,12 +73,6 @@
     <t>Each preset for Audio Unit effects is exported to a separate ".aupreset " file at /Users/&lt;yourUserName&gt;/Library/Audio/Presets/Apple/&lt;effectName&gt;/. A presets file lets you move settings for a particular effect between computers.</t>
   </si>
   <si>
-    <t>To export a saved User Preset, select</t>
-  </si>
-  <si>
-    <t>Export... from the Manage menu</t>
-  </si>
-  <si>
     <t>Select the user preset(s) you want to export then click OK to export each selected preset to a file. If there is only one preset in the list you must still select it, or nothing will be exported.</t>
   </si>
   <si>
@@ -115,36 +109,12 @@
     <t>&lt;  Back to: Effect Menu</t>
   </si>
   <si>
-    <t>प्रभाव मेनू: ऑडिओ युनिट - ऑडसेट मॅन्युअल</t>
-  </si>
-  <si>
-    <t>प्रभाव मेनू: ऑडिओ एकक</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
     <t>ऑडिओ युनिट (एयू) मॅक संगणकावर प्रदान केलेली एक सिस्टम-स्तरीय प्लग-इन आर्किटेक्चर आहे.</t>
   </si>
   <si>
     <t>हे रिअल-टाइम पूर्वावलोकनास समर्थन देते.</t>
   </si>
   <si>
-    <t>प्रीसेट्सची आयात / निर्यात समर्थित आहे (ते कसे कार्य करते याचे खाली वर्णन पहा) आणि केवळ ऑडसिटीमध्ये वापरण्यासाठी प्रीसेटची बचत.</t>
-  </si>
-  <si>
-    <t>ऑडिओ युनिट प्रभाव जोडत आहे</t>
-  </si>
-  <si>
-    <t>ऑडॅसिटीसाठी ऑडिओ युनिट प्लग-इन स्थापित करण्याच्या तपशीलवार सूचनांकरिता पहा: मॅक ओएस एक्स / मॅकओएसवर प्रभाव, जनरेटर आणि विश्लेषक प्लग-इन स्थापित करणे.</t>
-  </si>
-  <si>
-    <t>ऑडिओ युनिट इफेक्ट प्रीसेटची बचत, निर्यात आणि आयात</t>
-  </si>
-  <si>
     <t>प्रीसेट जतन करा ...</t>
   </si>
   <si>
@@ -163,49 +133,73 @@
     <t>आपण प्रीसेट निर्यात करण्यापूर्वी आपण तो आधीपासूनच वापरकर्ता प्रीसेट म्हणून जतन केलेला असणे आवश्यक आहे.</t>
   </si>
   <si>
-    <t>ऑडिओ युनिट प्रभावांसाठी प्रत्येक प्रीसेट / यूजर्स / &lt;yourUserName&gt; / लायब्ररी / ऑडिओ / प्रीसेट्स / Appleपल / &lt;effectName&gt; / वर वेगळ्या ".ऑप्रेसेट" फाइलमध्ये निर्यात केली जाते. एक प्रीसेट सेट फाइल आपल्याला संगणक दरम्यान विशिष्ट प्रभावासाठी सेटिंग्ज हलवू देते.</t>
-  </si>
-  <si>
-    <t>जतन केलेला वापरकर्ता प्रीसेट निर्यात करण्यासाठी, निवडा</t>
-  </si>
-  <si>
-    <t>व्यवस्थापित करा मेनूमधून ... निर्यात करा</t>
-  </si>
-  <si>
-    <t>आपण निर्यात करू इच्छित वापरकर्ता प्रीसेट (से) निवडा आणि नंतर प्रत्येक निवडलेल्या प्रीसेटची फाइलवर निर्यात करण्यासाठी ओके क्लिक करा. सूचीमध्ये एकच प्रीसेट असल्यास आपण अद्याप तो निवडणे आवश्यक आहे, किंवा काहीही निर्यात केले जाणार नाही.</t>
-  </si>
-  <si>
-    <t>आयात करा ...</t>
-  </si>
-  <si>
     <t>व्यवस्थापित करा मेनूमधून ... आयात करा निवडा</t>
   </si>
   <si>
-    <t>आपण आयात करू इच्छित प्रीसेट (र्स) निवडा नंतर प्रत्येक प्रीसेट फाइलला वापरकर्ता प्रीसेट म्हणून आयात करण्यासाठी ओके क्लिक करा.</t>
-  </si>
-  <si>
     <t>एक किंवा अधिक प्रीसेट आयात केल्याने परिणामी नवीन सेटिंग्ज लोड होत नाहीत. आपण व्यवस्थापित मेनूमध्ये वापरकर्त्याच्या प्रीसेटमधून आयातीत प्रीसेटपैकी एक निवडणे आवश्यक आहे</t>
   </si>
   <si>
     <t>त्याच्या सेटिंग्ज प्रभावीपणे लोड करण्यासाठी.</t>
   </si>
   <si>
-    <t>ऑडिओ युनिट प्रभाव पर्याय</t>
-  </si>
-  <si>
     <t>प्रभावाच्या संवादात, व्यवस्थापित करा क्लिक करा</t>
   </si>
   <si>
-    <t>बटण नंतर पर्याय स्पष्ट करा ... खाली दिलेला संवाद आणण्यासाठी. आपण या संवादातील पर्याय बदलता तेव्हा ते बदल फक्त चालू असलेल्या प्रभावावर लागू होतात. इतर सर्व ऑडिओ युनिट प्रभाव खाली दर्शविलेल्या डीफॉल्ट पर्यायांवर राहतील जोपर्यंत आपण त्यांचे पर्याय बदलत नाहीत.</t>
-  </si>
-  <si>
-    <t>उशीरपणाची भरपाईः ही सेटिंग (डीफॉल्टनुसार सक्षम केलेली) ऑडिओ युनिट प्रभावामुळे होणार्‍या वेव्हफॉर्मच्या विलंबाची भरपाई करते जे ऑडिओ डेटाला बफरवर प्रीलोड करते. नुकसान भरपाई सर्व प्रकरणांमध्ये कार्य करू शकत नाही आणि त्या कार्य करण्यासाठी, कोणत्याही नुकसानभरपाईची किंवा लेटेंसी अहवाल देण्याची सेटिंग्ज स्वतः सक्षम केलेली असणे आवश्यक आहे. नुकसान भरपाई अयशस्वी झाल्यास किंवा ही ऑडसेट सेटिंग अनचेक न केल्यास, प्रक्रिया केलेल्या निवडीच्या सुरूवातीस बफर ऑडिओ प्रभाव गप्प बसतील आणि निवडीच्या शेवटीपासून संबंधित ऑडिओ काढून टाकतील. नुकसान भरपाई सक्षम करणे किंवा अक्षम करणे तत्काळ प्रभावी आहे.</t>
-  </si>
-  <si>
-    <t>वापरकर्ता इंटरफेस: डीफॉल्टनुसार सक्षम केलेली "पूर्ण" सेटिंग बहुतेक ऑडिओ युनिट प्रभावांना ग्राफिकल (साध्या मजकुराऐवजी) इंटरफेस प्रदर्शित करण्यास अनुमती देते. आपण हे सेटिंग बदलल्यास आपण सेटिंग्ज संवाद बंद करणे आवश्यक आहे, नंतर बदल पाहण्यासाठी प्रभाव बंद करा आणि पुन्हा उघडणे.</t>
-  </si>
-  <si>
     <t>&lt;परत: प्रभाव मेनू</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>प्रभाव मेनू: ध्वनी एकक</t>
+  </si>
+  <si>
+    <t>प्रभाव मेनू: ध्वनी एकक - ओड्यासिटी माहितीपुस्तका</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>ध्वनी एकक प्रभाव जोडत आहे</t>
+  </si>
+  <si>
+    <t>प्रीसेट्सची आयात / निर्यात समर्थित आहे (ते कसे कार्य करते याचे खाली वर्णन पहा) आणि केवळ ओड्यासिटीमध्ये वापरण्यासाठी प्रीसेटची बचत.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटीसाठी ध्वनी एकक प्लग-इन स्थापित करण्याच्या तपशीलवार सूचनांकरिता पहा: मॅक ओएस एक्स / मॅकओएसवर प्रभाव, जनरेटर आणि विश्लेषक प्लग-इन स्थापित करणे.</t>
+  </si>
+  <si>
+    <t>ध्वनी एकक प्रभाव प्रीसेटची बचत, निर्यात आणि आयात</t>
+  </si>
+  <si>
+    <t>ध्वनी एकक प्रभावांसाठी प्रत्येक प्रीसेट / वापरकर्ते / &lt;आपले वापरकर्तानाव&gt; / ग्रंथालय / ध्वनी / प्रीसेट्स / ऍप्पल / &lt;प्रभावाचे नाव&gt; / वर वेगळ्या ".ऑप्रेसेट" धारिकामध्ये निर्यात केली जाते. एक प्रीसेट सेट धारिका आपल्याला संगणक दरम्यान विशिष्ट प्रभावासाठी सेटिंग्ज हलवू देते.</t>
+  </si>
+  <si>
+    <t>To export a saved User Preset, select Export... from the Manage menu in the effect dialog which brings up the following dialog:</t>
+  </si>
+  <si>
+    <t>जतन केलेला वापरकर्ता प्रीसेट एक्सपोर्ट करण्यासाठी, प्रभाव संवादमधे मॅनेज मेनूवरून निर्यात करा ... निवडा जे खालील संवाद समोर आणते.</t>
+  </si>
+  <si>
+    <t>आपण निर्यात करू इच्छित वापरकर्ता प्रीसेट (से) निवडा आणि नंतर प्रत्येक निवडलेल्या प्रीसेटची धरिकेवर निर्यात करण्यासाठी ओके क्लिक करा. सूचीमध्ये एकच प्रीसेट असल्यास आपण अद्याप तो निवडणे आवश्यक आहे, किंवा काहीही निर्यात केले जाणार नाही.</t>
+  </si>
+  <si>
+    <t>आयात करा …</t>
+  </si>
+  <si>
+    <t>आपण आयात करू इच्छित प्रीसेट (र्स) निवडा नंतर प्रत्येक प्रीसेट धरिकेला वापरकर्ता प्रीसेट म्हणून आयात करण्यासाठी ओके क्लिक करा.</t>
+  </si>
+  <si>
+    <t>ध्वनी एकक प्रभाव पर्याय</t>
+  </si>
+  <si>
+    <t>बटण नंतर पर्याय स्पष्ट करा ... खाली दिलेला संवाद आणण्यासाठी. आपण या संवादातील पर्याय बदलता तेव्हा ते बदल फक्त चालू असलेल्या प्रभावावर लागू होतात. इतर सर्व ध्वनी एकक प्रभाव खाली दर्शविलेल्या डीफॉल्ट पर्यायांवर राहतील जोपर्यंत आपण त्यांचे पर्याय बदलत नाहीत.</t>
+  </si>
+  <si>
+    <t>प्रलंबित भरपाईः ही सेटिंग (डीफॉल्टनुसार सक्षम केलेली) ध्वनी एकक प्रभावामुळे होणार्‍या तरंगरूपाच्या विलंबाची भरपाई करते जे ध्वनी माहितीला बफरवर प्रीलोड करते. नुकसान भरपाई सर्व प्रकरणांमध्ये कार्य करू शकत नाही आणि त्या कार्य करण्यासाठी, कोणत्याही नुकसानभरपाईची किंवा प्रलंबित अहवाल देण्याची सेटिंग्ज स्वतः सक्षम केलेली असणे आवश्यक आहे. नुकसान भरपाई अयशस्वी झाल्यास किंवा ही ओड्यासिटी सेटिंग अनचेक न केल्यास, प्रक्रिया केलेल्या निवडीच्या सुरूवातीस बफर ध्वनी प्रभाव गप्प बसतील आणि निवडीच्या शेवटीपासून संबंधित ध्वनी काढून टाकतील. नुकसान भरपाई सक्षम करणे किंवा अक्षम करणे तत्काळ प्रभावी आहे.</t>
+  </si>
+  <si>
+    <t>वापरकर्ता मुखपृष्ठ : डीफॉल्टनुसार सक्षम केलेली "पूर्ण" सेटिंग बहुतेक ध्वनी एकक प्रभावांना ग्राफिकल (साध्या मजकुराऐवजी) मुखपृष्ठ प्रदर्शित करण्यास अनुमती देते. आपण हे सेटिंग बदलल्यास आपण सेटिंग्ज संवाद बंद करणे आवश्यक आहे, नंतर बदल पाहण्यासाठी प्रभाव बंद करा आणि पुन्हा उघडणे.</t>
   </si>
 </sst>
 </file>
@@ -264,11 +258,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,11 +558,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -585,7 +586,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -596,7 +597,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -607,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -618,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -629,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -640,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -651,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -662,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -673,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -684,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -695,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -706,7 +707,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -717,7 +718,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -728,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -739,7 +740,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -750,7 +751,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -760,8 +761,8 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>49</v>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -769,10 +770,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -780,10 +781,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -791,10 +792,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -805,7 +806,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -813,10 +814,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -824,10 +825,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -835,10 +836,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -849,7 +850,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -860,7 +861,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -871,7 +872,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -882,7 +883,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -892,8 +893,8 @@
       <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
-        <v>59</v>
+      <c r="C30" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -903,8 +904,8 @@
       <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
-        <v>60</v>
+      <c r="C31" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -915,32 +916,11 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>